--- a/Instruction_Analysis/xmf.xlsx
+++ b/Instruction_Analysis/xmf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91867\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B60834-B883-459C-AC43-5D975AF505A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307DE95-2220-43A2-953B-8C15EB2A7CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="7308" xr2:uid="{6E665FD8-5713-4F00-A2D0-66E80C41094E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" xr2:uid="{6E665FD8-5713-4F00-A2D0-66E80C41094E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>流水线指令设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,12 +212,297 @@
     <t>MOVN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>指令作用为: rt &lt; rs AND zero_ _extended(immediate), 将地址为rs的通用寄存器的值与指
+令中立即数进行零扩展后的值进行逻辑“与”运算，运算结果保存到地址为rt 的通用寄存
+器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>andi rt,rs immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六位立即数进行零扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori rs,rt, immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令用法为: ori rs, rt, immediate,作用是将指令中的16位立即数immediate进行无符号
+扩展至32位，然后与索引为rs的通用寄存器的值进行逻辑“或”运算，运算结果保存到索引为rt的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十六位立即数进行无符号扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在MIPS32指令集架构中，经常会有指令需要将其中的立即数进行符号扩展，或者无符
+号扩展，- -般都是将n位立即数扩展为32位，其中，符号扩展是将n位立即数的最高位复制
+到扩展后的32位数据的高(32-n) 位，无符号扩展则是将扩展后的32位数据的高(32-n)位
+都置为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为: rt &lt;- rs XOR zero_ _extended(immediate),将地址为rs的通用寄存器的值与指
+令中立即数进行零扩展后的值进行逻辑“异或”运算，运算结果保存到地址为rt的通用寄存
+器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xori rt,rs, immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R型指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为: rd&lt;- rt&gt;&gt; sa (arithmetic)，将地址为rt的通用寄存器的值向右移sa位，空
+出来的位置使用rτt[31]的值填充，结果保存到地址为rd的通用寄存器中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sra rd, rt, sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10:6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SRA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt的值向右移sa位，空出来的用0填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：if rs&gt;0 then branch，如果地址为rs的通用寄存器的值大于零，那么发生转移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgtz rs，offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：if rs≤0 then branch，如果地址为rs的通用寄存器的值小于等于零，那么发生转移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blez rs，offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgtz、blez、bne可以直接依据指令中的指令码进行判断，确定是哪一条指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有分支指令的第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0-15bit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储的都是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如果发生转移，那么将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左移</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，并符号扩展至</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，然后与延迟槽指令的地址相加，加法的结果就是转移目的地址，从该地址取指令。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实两者是等价的，sll 指令向$0寄存器保存移位结果，实际不会有任何效果，因为无论
+向SO写任何数，其值始终为0，所以效果等同于什么都不做，这也正是空指令nop、ssnop 的
+效果。所以nop、ssnop 指令不用特意实现，完全可以当作特殊的逻辑左移指令sll.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop = sll $0,$0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25:6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL 000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop和逻辑左移的功能码相同，在译码的时候不会有冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令作用为：if rt ≠ 0 then rd ← rs，判断地址为rt的通用寄存器的值。如果不为零，那么将地址为rs的通用寄存器的值赋给地址为rd的通用寄存器；反之，保持地址为rd的通用寄存器不变。movn是Move Conditional on Not Zero的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movn rd，rs，rt</t>
+  </si>
+  <si>
+    <t>001011  MOVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +556,44 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -341,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,8 +710,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AA0B03-95AC-43D3-B9AF-D26D1BAC32DE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -746,83 +1075,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
@@ -847,7 +1176,7 @@
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="112.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -919,148 +1248,310 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="112.2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="71.400000000000006" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="71.400000000000006" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="112.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="91.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="11"/>
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
